--- a/LabSystem/src/main/resources/templates/签到时长模板.xlsx
+++ b/LabSystem/src/main/resources/templates/签到时长模板.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dinpper\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\实验室\毕设\LabSystem\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4590B2C-CEB9-42AE-AD6A-856C768F3025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E1CDF03-4F09-4B7D-A73C-2A37E931DEAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9870" yWindow="6690" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7740" yWindow="3210" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,9 +39,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{.name}</t>
-  </si>
-  <si>
     <t>{.groupName}</t>
   </si>
   <si>
@@ -53,6 +50,10 @@
   </si>
   <si>
     <t>签到时长 (h)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{.userName}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -381,7 +382,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -402,21 +403,21 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
